--- a/src/output_detections_highlighting_with_text_and_annotations.xlsx
+++ b/src/output_detections_highlighting_with_text_and_annotations.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -697,12 +697,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>As a Staff member, I want to Manage Hearing Calendars, so that I can track hearing-related activities and due dates.</t>
+          <t>As a staff member, I want to denote an application with a Final Action status. So that I can finish it.</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>As a Staff member, I want to Manage Affidavits, so that I can ensure compliance with the requirements prior to the hearing.</t>
+          <t>As a Staff member, I want to Manage Hearing Calendars, so that I can track hearing-related activities and due dates.</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>As an Applicant, I want to Satisfy Hearing Requirements, so that I can ensure all pre-hearing requirements are satisfied in time for the hearing.</t>
+          <t>As a Staff member, I want to Manage Affidavits, so that I can ensure compliance with the requirements prior to the hearing.</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>As an Applicant, I want to Request a Plan Review Meeting, so that I can meet with the Plan Review Staff regarding the plan review.</t>
+          <t>As an Applicant, I want to Satisfy Hearing Requirements, so that I can ensure all pre-hearing requirements are satisfied in time for the hearing.</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>As a Plan Review Staff member, I want to successfully Conduct a Plan Review Meeting with the Applicant and record the outcome, so that I can listen to it again.</t>
+          <t>As an Applicant, I want to Request a Plan Review Meeting, so that I can meet with the Plan Review Staff regarding the plan review.</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
@@ -816,12 +816,12 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>As an Applicant, I want to Resubmit Plans, so that I can review revised plans.</t>
+          <t>As a Plan Review Staff member, I want to successfully Conduct a Plan Review Meeting with the Applicant and record the outcome, so that I can listen to it again.</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>As a Staff member, I want to create each condo unit, so that I can associate it to the child parcel and address after the condominiums are recorded in the system.</t>
+          <t>As an Applicant, I want to Resubmit Plans, so that I can review revised plans.</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
@@ -850,24 +850,24 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>As a Technical Staff member, I want to update the GIS Property Management, so that I can successfully update the transactional Parcel Pin to reference the GIS layer where the Split or Merged Parcel Pin exists.</t>
+          <t>As a Staff member, I want to create each condo unit, so that I can associate it to the child parcel and address after the condominiums are recorded in the system.</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>#G04#</t>
+          <t>#G03#</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>As a user, I want to click on the address, so that it takes me to a new tab with Google Maps.</t>
+          <t>As a Technical Staff member, I want to update the GIS Property Management, so that I can successfully update the transactional Parcel Pin to reference the GIS layer where the Split or Merged Parcel Pin exists.</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>As a user, I want to be able to anonymously view public information, so that I know about recycling centers near me before creating an account.</t>
+          <t>As a user, I want to click on the address, so that it takes me to a new tab with Google Maps.</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>As a user, I want to add donation centers as favorites on my profile, so that I can view them later.</t>
+          <t>As a user, I want to be able to anonymously view public information, so that I know about recycling centers near me before creating an account.</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
@@ -918,12 +918,12 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>As an admin, I want to be able to add or remove recycling facilities' information, so that users get the most recent information.</t>
+          <t>As a user, I want to add donation centers as favorites on my profile, so that I can view them later.</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>As an admin, I want to be able to read users' feedback and complaints, so that we can add more features and keep improving the service we provide to them.</t>
+          <t>As an admin, I want to be able to add or remove recycling facilities' information, so that users get the most recent information.</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>As an admin, I want to have all data encrypted, so that important information will not be stolen during a server breach or an attack.</t>
+          <t>As an admin, I want to be able to read users' feedback and complaints, so that we can add more features and keep improving the service we provide to them.</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>As a developer, I want to access an API from the website, so that I can integrate it and implement certain features in my own iOS application.</t>
+          <t>As an admin, I want to have all data encrypted, so that important information will not be stolen during a server breach or an attack.</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>As a company, I want to have a website that is easy to use, so that I can upload or delete stuff step by step.</t>
+          <t>As a developer, I want to access an API from the website, so that I can integrate it and implement certain features in my own iOS application.</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>As a developer, I want to use bootstrap in the process of developing, so that I can easily design my website.</t>
+          <t>As a company, I want to have a website that is easy to use, so that I can upload or delete stuff step by step.</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>As a user, I want to view all locations of recycling centers on a map, so that I can check which routes to take to drop off waste.</t>
+          <t>As a developer, I want to use bootstrap in the process of developing, so that I can easily design my website.</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>As a user, I want to upload my week's schedule, so that I can get recommendations for recycling centers that best fit my availability.</t>
+          <t>As a user, I want to view all locations of recycling centers on a map, so that I can check which routes to take to drop off waste.</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>As an admin, I want to view user error logs, so that I can fix or review any issues that are being faced by users of the system.</t>
+          <t>As a user, I want to upload my week's schedule, so that I can get recommendations for recycling centers that best fit my availability.</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>As a superuser, I want to update the recycling center information, so that I can provide the latest information about the recycling center.</t>
+          <t>As an admin, I want to view user error logs, so that I can fix or review any issues that are being faced by users of the system.</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>As a recyclingfacility, I want to be able to communicate directly with the site admin and convey any issues or concerns I have, so that they fix them.</t>
+          <t>As a superuser, I want to update the recycling center information, so that I can provide the latest information about the recycling center.</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
@@ -1117,46 +1117,46 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>#G08#</t>
+          <t>#G04#</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>As a Developer, I want to get a Data Package into Node, so that I can start using the data for doing analysis and visualizations.</t>
+          <t>As a recyclingfacility, I want to be able to communicate directly with the site admin and convey any issues or concerns I have, so that they fix them.</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>#G08#</t>
+          <t>#G05#</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>As a Researcher, I want to get a Data Package into Julia in seconds, so that I can start using the data for doing analysis and visualizations.</t>
+          <t>As a Data Consuming User, I want to be able to download an image ofa particular view state, So that I can use it offline.</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>#G08#</t>
+          <t>#G05#</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>As a Researcher, I want to be able to save new visualizations, so that I can share them with others or include them in the Data Package.</t>
+          <t>As an API User, I want to be able to persistently store visualisation state in the database, So that such can be shared more easily and contribute to a visualisation gallery.</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -1168,29 +1168,29 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>#G08#</t>
+          <t>#G05#</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>As a Researcher, I want to be able to save new visualizations, so that I can share them with others or include them in the Data Package.</t>
+          <t>As a Data Publishing User, I want to have my dataset update automatically as the source file/files changes, So that OpenSpending always shows current data.</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>#G08#</t>
+          <t>#G05#</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>As a Researcher, I want to be able to save new visualizations, so that I can share them with others or include them in the Data Package.</t>
+          <t>As a Data Publishing User, I want to have my dataset update automatically as the source file/files changes, So that OpenSpending always shows current data.</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -1202,12 +1202,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>#G08#</t>
+          <t>#G05#</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>As a Researcher, I want to be able to save new visualizations, so that I can share them with others or include them in the Data Package.</t>
+          <t>As a User, I want to be able to set my own username, So that my data is more easily discoverable.</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -1219,29 +1219,29 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>#G08#</t>
+          <t>#G05#</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>As a Researcher, I want to get a Data Package into R in seconds, so that I can start using the data for doing analysis and visualizations.</t>
+          <t>As a Data Publishing User, I want to know if my CSV file is valid, So that I can fix possible data issues before publishing it on Open Spending.</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>#G08#</t>
+          <t>#G05#</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>As a Researcher, I want to get a Data Package into Excel in seconds, so that I can start using the data for doing analysis and visualizations.</t>
+          <t>As a Data Publishing User, I want to know if my CSV file is valid, So that I can fix possible data issues before publishing it on Open Spending.</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -1253,12 +1253,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>#G08#</t>
+          <t>#G05#</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>As a Researcher, I want to get a Data Package into SPSS in seconds, so that I can start using the data for doing analysis and visualizations.</t>
+          <t>As an API user, I want to be able to change some of the styling of the embedded Viewer in my own platform, So that I can brand it to my own organisation's color scheme.</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>As a Researcher, I want to get a Data Package into STATA in seconds, so that I can start using the data for doing analysis and visualizations.</t>
+          <t>As a Developer, I want to get a Data Package into Node, so that I can start using the data for doing analysis and visualizations.</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>As a Researcher, I want to get a Data Package into LibreOffice/OpenOffice in seconds, so that I can start using the data for doing analysis and visualizations.</t>
+          <t>As a Researcher, I want to get a Data Package into Julia in seconds, so that I can start using the data for doing analysis and visualizations.</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>As a Developer, I want to get a Data Package into Python in seconds, so that I can start using the data for doing analysis and visualizations.</t>
+          <t>As a Researcher, I want to be able to save new visualizations, so that I can share them with others or include them in the Data Package.</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>As a Developer, I want a jQuery plugin for Core Data Packages, so that I can use it to apply to form control that uses a core dataset for autocompletion.</t>
+          <t>As a Researcher, I want to be able to save new visualizations, so that I can share them with others or include them in the Data Package.</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>As a Developer, I want to get a Data Package into Clojure in seconds, so that I can start using the data in doing analysis and visualizations.</t>
+          <t>As a Researcher, I want to be able to save new visualizations, so that I can share them with others or include them in the Data Package.</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>As a Developer, I want to get a Data Package into Julia in seconds, so that I can start using the data in doing analysis and visualizations.</t>
+          <t>As a Researcher, I want to be able to save new visualizations, so that I can share them with others or include them in the Data Package.</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>As a Developer, I want to get a Data Package into C++ in seconds, so that I can start using the data in doing analysis and visualizations.</t>
+          <t>As a Researcher, I want to get a Data Package into R in seconds, so that I can start using the data for doing analysis and visualizations.</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>As a Machine Learning expert, I would like to package ML datasets as data packages, so that I can easily import them into my ML platform, so that I can start using the data in doing analysis.</t>
+          <t>As a Researcher, I want to get a Data Package into Excel in seconds, so that I can start using the data for doing analysis and visualizations.</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>As a ResearcherPublisher, I want to publish Data Packages to CKAN, so that my data is findable, and I can have a data API.</t>
+          <t>As a Researcher, I want to get a Data Package into SPSS in seconds, so that I can start using the data for doing analysis and visualizations.</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>As a publisher, I want to embed a preview button on my site, so that users can preview the data and be encouraged that this is the correct data for them.</t>
+          <t>As a Researcher, I want to get a Data Package into STATA in seconds, so that I can start using the data for doing analysis and visualizations.</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -1445,41 +1445,41 @@
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>As a Researcher, I want an app that generates an OpenRefine reconciliation API endpoint from a Tabular Data Package, so that I can use it to clean messy data.</t>
+          <t>As a Researcher, I want to get a Data Package into LibreOffice/OpenOffice in seconds, so that I can start using the data for doing analysis and visualizations.</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>#G10#</t>
+          <t>#G08#</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>As a site member, I want to describe myself on my own page in a semi-structured way, so that others can learn about me.</t>
+          <t>As a Developer, I want to get a Data Package into Python in seconds, so that I can start using the data for doing analysis and visualizations.</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>#G10#</t>
+          <t>#G08#</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>As a Trainer, I want to include additional details in my profile page about me, so that others can learn about me and decide if I am the right trainer for them.</t>
+          <t>As a Developer, I want a jQuery plugin for Core Data Packages, so that I can use it to apply to form control that uses a core dataset for autocompletion.</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -1491,12 +1491,12 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>#G10#</t>
+          <t>#G08#</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>As a trainer, I want to list my upcoming classes in my profile and include a link to a detailed page about each, so that prospective attendees can find my courses.</t>
+          <t>As a Developer, I want to get a Data Package into Clojure in seconds, so that I can start using the data in doing analysis and visualizations.</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -1508,12 +1508,12 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>#G10#</t>
+          <t>#G08#</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>As a site visitor, I want to read current news on the home page, so that I stay current on agile news.</t>
+          <t>As a Developer, I want to get a Data Package into Julia in seconds, so that I can start using the data in doing analysis and visualizations.</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -1525,12 +1525,12 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>#G10#</t>
+          <t>#G08#</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>As a site visitor, I want to email news items to the editor, so that they can be considered for publication.</t>
+          <t>As a Developer, I want to get a Data Package into C++ in seconds, so that I can start using the data in doing analysis and visualizations.</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -1542,46 +1542,46 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>#G10#</t>
+          <t>#G08#</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>As a trainer, I want to create a new course or event, so that site visitors can see it.</t>
+          <t>As a ResearcherPublisher, I want to publish Data Packages to CKAN, so that my data is findable, and I can have a data API.</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>#G10#</t>
+          <t>#G08#</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>As a trainer, I want to create a new course or event, so that site visitors can see it.</t>
+          <t>As a publisher, I want to embed a preview button on my site, so that users can preview the data and be encouraged that this is the correct data for them.</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>#G10#</t>
+          <t>#G08#</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>As a trainer, I want to delete one of my courses or events, so that it's no longer listed if I cancel for some reason.</t>
+          <t>As a Researcher, I want an app that generates an OpenRefine reconciliation API endpoint from a Tabular Data Package, so that I can use it to clean messy data.</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>As a trainer, I want to delete one of my courses or events, so that it's no longer listed if I cancel for some reason.</t>
+          <t>As a site member, I want to describe myself on my own page in a semi-structured way, so that others can learn about me.</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -1615,12 +1615,12 @@
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>As a site editor, I want to update any course or event, so that I can fix things the original author hasn't.</t>
+          <t>As a Trainer, I want to include additional details in my profile page about me, so that others can learn about me and decide if I am the right trainer for them.</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>As a site editor, I want to update any course or event, so that I can fix things the original author hasn't.</t>
+          <t>As a trainer, I want to list my upcoming classes in my profile and include a link to a detailed page about each, so that prospective attendees can find my courses.</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>As a site visitor, I want to read FAQs, so that I can get quick answers.</t>
+          <t>As a site visitor, I want to read current news on the home page, so that I stay current on agile news.</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>As a site editor, I want to maintain a FAQ section, so that support gets fewer easily answered questions.</t>
+          <t>As a site visitor, I want to email news items to the editor, so that they can be considered for publication.</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>As a site member, I want to download the latest training material and methodology PDFs, so that I have them.</t>
+          <t>As a trainer, I want to create a new course or event, so that site visitors can see it.</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>As a site member, I want to download the latest training material and methodology PDFs, so that I have them.</t>
+          <t>As a trainer, I want to create a new course or event, so that site visitors can see it.</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>As a visitor, I want to download presentations, PDFs, etc. on Scrum, so that I can learn from them or use them.</t>
+          <t>As a trainer, I want to delete one of my courses or events, so that it's no longer listed if I cancel for some reason.</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>As a visitor, I want to download presentations, PDFs, etc. on Scrum, so that I can learn from them or use them.</t>
+          <t>As a trainer, I want to delete one of my courses or events, so that it's no longer listed if I cancel for some reason.</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -1751,12 +1751,12 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>As a visitor, I want to download presentations, PDFs, etc. on Scrum, so that I can learn from them or use them.</t>
+          <t>As a site editor, I want to update any course or event, so that I can fix things the original author hasn't.</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
@@ -1768,12 +1768,12 @@
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>As a visitor, I want to download presentations, PDFs, etc. on Scrum, so that I can learn from them or use them.</t>
+          <t>As a site editor, I want to update any course or event, so that I can fix things the original author hasn't.</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
@@ -1785,12 +1785,12 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>As a visitor, I want to download presentations, PDFs, etc. on Scrum, so that I can learn from them or use them.</t>
+          <t>As a site visitor, I want to read FAQs, so that I can get quick answers.</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
@@ -1802,12 +1802,12 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>As a visitor, I want to download presentations, PDFs, etc. on Scrum, so that I can learn from them or use them.</t>
+          <t>As a site editor, I want to maintain a FAQ section, so that support gets fewer easily answered questions.</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
@@ -1819,12 +1819,12 @@
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>As a site admin, I want to approve each help wanted ad before it gets to the site, so that we're sure of the quality of jobs being listed.</t>
+          <t>As a site member, I want to download the latest training material and methodology PDFs, so that I have them.</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>As a site admin, I want to be emailed whenever a job is submitted, so that I am aware of it and can decide if I want to post it.</t>
+          <t>As a site member, I want to download the latest training material and methodology PDFs, so that I have them.</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>As a site admin, I want to be emailed whenever a job is submitted, so that I am aware of it and can decide if I want to post it.</t>
+          <t>As a visitor, I want to download presentations, PDFs, etc. on Scrum, so that I can learn from them or use them.</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>As a site member, I want to subscribe to an RSS feed of jobs available, so that I can read them without visiting the site.</t>
+          <t>As a visitor, I want to download presentations, PDFs, etc. on Scrum, so that I can learn from them or use them.</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>As a site visitor, I want to read a new article on the front page about once a week, so that I am up on all the latest happenings.</t>
+          <t>As a visitor, I want to download presentations, PDFs, etc. on Scrum, so that I can learn from them or use them.</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>As a site visitor, I want to be able to read some of your articles, so that I can learn without first joining the site.</t>
+          <t>As a visitor, I want to download presentations, PDFs, etc. on Scrum, so that I can learn from them or use them.</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>As a site visitor, I want to post comments about articles, so that others can read them.</t>
+          <t>As a visitor, I want to download presentations, PDFs, etc. on Scrum, so that I can learn from them or use them.</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>As a trainer, I want to see the upcoming courses are what I want visitors to notice, so that they register and there's a benefit to my membership.</t>
+          <t>As a visitor, I want to download presentations, PDFs, etc. on Scrum, so that I can learn from them or use them.</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -1955,12 +1955,12 @@
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>As a trainer, I want to be notified about the results of surveys about my classes, so that I can read them.</t>
+          <t>As a site admin, I want to approve each help wanted ad before it gets to the site, so that we're sure of the quality of jobs being listed.</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>As a site admin, I want to view all classes in a pending state, so that I can approve any that need to be approved.</t>
+          <t>As a site admin, I want to be emailed whenever a job is submitted, so that I am aware of it and can decide if I want to post it.</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -1989,12 +1989,12 @@
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>As a site editor, I want to edit the content of the email automatically sent to new Certified Scrum Masters and Product Owners, so that I don't need to involve a programmer on simple email edits.</t>
+          <t>As a site admin, I want to be emailed whenever a job is submitted, so that I am aware of it and can decide if I want to post it.</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
@@ -2006,12 +2006,12 @@
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>As a CST, I want to pay an annual fee, so that my CST status is active.</t>
+          <t>As a site member, I want to subscribe to an RSS feed of jobs available, so that I can read them without visiting the site.</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
@@ -2023,41 +2023,41 @@
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>As a site editor, I want to post information in a trainers-only section, so that only trainers see it.</t>
+          <t>As a site visitor, I want to read a new article on the front page about once a week, so that I am up on all the latest happenings.</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>#G11#</t>
+          <t>#G10#</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>As a developer, I want to have the subdomain beta.nsf.gov be set up, so that I can deploy a beta site to it.</t>
+          <t>As a site visitor, I want to be able to read some of your articles, so that I can learn without first joining the site.</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>#G11#</t>
+          <t>#G10#</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>As an NSF administrator, I want to shadow the CMS implementation, so that I can learn as the prototype is developed further.</t>
+          <t>As a site visitor, I want to post comments about articles, so that others can read them.</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -2069,29 +2069,29 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>#G11#</t>
+          <t>#G10#</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>As an NSF employee, I want to have an updated roadmap document, so that I can see prioritized areas to focus on for the next few months and beyond.</t>
+          <t>As a trainer, I want to see the upcoming courses are what I want visitors to notice, so that they register and there's a benefit to my membership.</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>#G11#</t>
+          <t>#G10#</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>As a CMS administrator, I want to have roles, so that I can assign them to my users.</t>
+          <t>As a trainer, I want to be notified about the results of surveys about my classes, so that I can read them.</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -2103,46 +2103,46 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>#G11#</t>
+          <t>#G10#</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>As a CMS administrator, I want to have roles, so that I can assign them to my users.</t>
+          <t>As a site admin, I want to view all classes in a pending state, so that I can approve any that need to be approved.</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>#G11#</t>
+          <t>#G10#</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>As a web recruiter manager, I want to confirm the recruiter is set up and working properly, so that I can deploy it on more pages.</t>
+          <t>As a site editor, I want to edit the content of the email automatically sent to new Certified Scrum Masters and Product Owners, so that I don't need to involve a programmer on simple email edits.</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>#G11#</t>
+          <t>#G10#</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>As a web recruiter manager, I want to confirm the recruiter is set up and working properly, so that I can deploy it on more pages.</t>
+          <t>As a CST, I want to pay an annual fee, so that my CST status is active.</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -2154,12 +2154,12 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>#G11#</t>
+          <t>#G10#</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>As an NSF employee, I want to know where the initial in-person meeting will be, so that I can plan on attending.</t>
+          <t>As a site editor, I want to post information in a trainers-only section, so that only trainers see it.</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -2171,12 +2171,12 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>#G12#</t>
+          <t>#G11#</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>As a parent, I want to be able to enroll my children, so that they can be admitted to camp.</t>
+          <t>As a developer, I want to have the subdomain beta.nsf.gov be set up, so that I can deploy a beta site to it.</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -2188,80 +2188,80 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>#G13#</t>
+          <t>#G11#</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>As a moderator, I want to create a new game by entering a name and an optional description, so that I can start inviting estimators.</t>
+          <t>As an NSF administrator, I want to shadow the CMS implementation, so that I can learn as the prototype is developed further.</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>#G13#</t>
+          <t>#G11#</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>As a moderator, I want to delete an item from the list of items to be estimated, so that we can remove it and not estimate it.</t>
+          <t>As an NSF employee, I want to have an updated roadmap document, so that I can see prioritized areas to focus on for the next few months and beyond.</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>#G13#</t>
+          <t>#G11#</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>As a moderator, I want to estimate a story we estimated earlier in the session again, so that we can give a new estimate if we feel different about the story after estimating other related stories.</t>
+          <t>As a CMS administrator, I want to have roles, so that I can assign them to my users.</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>#G13#</t>
+          <t>#G11#</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>As an estimator, I want to join a game by entering my name on the page I received the URL for, so that I can participate.</t>
+          <t>As a CMS administrator, I want to have roles, so that I can assign them to my users.</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>#G13#</t>
+          <t>#G11#</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>As an estimator, I want to see the item we're estimating, so that I know what I'm giving an estimate for.</t>
+          <t>As a web recruiter manager, I want to confirm the recruiter is set up and working properly, so that I can deploy it on more pages.</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
@@ -2273,12 +2273,12 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>#G13#</t>
+          <t>#G11#</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>As an estimator, I want to see the item we're estimating, so that I know what I'm giving an estimate for.</t>
+          <t>As a web recruiter manager, I want to confirm the recruiter is set up and working properly, so that I can deploy it on more pages.</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -2290,29 +2290,29 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>#G13#</t>
+          <t>#G11#</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>As a participant, I want to have the two-minute timer reset itself as soon as we all play an estimate, so that it's ready for use on the next round.</t>
+          <t>As an NSF employee, I want to know where the initial in-person meeting will be, so that I can plan on attending.</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>#G13#</t>
+          <t>#G12#</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>As a participant, I want to scroll back through the stories and estimates from prior rounds, so that I can use this information when I estimate the item of the current round.</t>
+          <t>As a parent, I want to be able to enroll my children, so that they can be admitted to camp.</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>As a participant, I want to scroll back through the stories and estimates from prior rounds, so that I can use this information when I estimate the item of the current round.</t>
+          <t>As a moderator, I want to create a new game by entering a name and an optional description, so that I can start inviting estimators.</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -2341,12 +2341,12 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>#G14#</t>
+          <t>#G13#</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>As a Publisher, I want to create a data package in the UI so that it is available and published.</t>
+          <t>As a moderator, I want to delete an item from the list of items to be estimated, so that we can remove it and not estimate it.</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -2358,29 +2358,29 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>#G14#</t>
+          <t>#G13#</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>As a Publisher, I want to be able to restore the deleted data package via cli, so that that it is back visible and available to view, download.</t>
+          <t>As a moderator, I want to estimate a story we estimated earlier in the session again, so that we can give a new estimate if we feel different about the story after estimating other related stories.</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>#G14#</t>
+          <t>#G13#</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>As a Publisher, I want to be able to restore the deleted data package via cli, so that that it is back visible and available to view, download.</t>
+          <t>As an estimator, I want to join a game by entering my name on the page I received the URL for, so that I can participate.</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -2392,12 +2392,12 @@
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>#G14#</t>
+          <t>#G13#</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>As a Publisher, I want to preview a datapackage I have prepared, so that that I can check it works and share the results.</t>
+          <t>As an estimator, I want to see the item we're estimating, so that I know what I'm giving an estimate for.</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -2409,68 +2409,68 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>#G14#</t>
+          <t>#G13#</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>As a Developer, I want to use data package as a node lib in my project, so that that I can depend on it using my normal dependency framework.</t>
+          <t>As an estimator, I want to see the item we're estimating, so that I know what I'm giving an estimate for.</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>#G14#</t>
+          <t>#G13#</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>As a Consumer, I want to load a Data Package from R, so that that I can immediately start playing with it.</t>
+          <t>As a participant, I want to have the two-minute timer reset itself as soon as we all play an estimate, so that it's ready for use on the next round.</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>#G14#</t>
+          <t>#G13#</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>As a Data Analyst I want to download a data package, so that that I can study it and wrangle with it to infer new data or generate new insights.</t>
+          <t>As a participant, I want to scroll back through the stories and estimates from prior rounds, so that I can use this information when I estimate the item of the current round.</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>#G14#</t>
+          <t>#G13#</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>As a Data Analyst I want to download a data package, so that that I can study it and wrangle with it to infer new data or generate new insights.</t>
+          <t>As a participant, I want to scroll back through the stories and estimates from prior rounds, so that I can use this information when I estimate the item of the current round.</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>As a Consumer, I want to download a DataPackage's data one coherent SQLite database, so that that I can get it easily in one form.</t>
+          <t>As a Publisher, I want to create a data package in the UI so that it is available and published.</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>As a Consumer, I want to download a DataPackage's data one coherent SQLite database, so that that I can get it easily in one form.</t>
+          <t>As a Publisher, I want to be able to restore the deleted data package via cli, so that that it is back visible and available to view, download.</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>As a Publisher, I want to tag datapackage to create a snapshot of data on the registry server, so that that consumers can refer to it.</t>
+          <t>As a Publisher, I want to be able to restore the deleted data package via cli, so that that it is back visible and available to view, download.</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>As a Publisher, I want to be able to overwrite the previously tagged datapackage, so that that I can fix it if I mess up.</t>
+          <t>As a Publisher, I want to preview a datapackage I have prepared, so that that I can check it works and share the results.</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>As a Publisher, I want to be able to overwrite the previously tagged datapackage, so that that I can fix it if I mess up.</t>
+          <t>As a Developer, I want to use data package as a node lib in my project, so that that I can depend on it using my normal dependency framework.</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>As a Consumer, I want to download a Data package at a particular version, so that that I know it is compatible with my scripts and system.</t>
+          <t>As a Consumer, I want to load a Data Package from R, so that that I can immediately start playing with it.</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>As an Owner, I want to edit my profile, so that that it is updated with new information.</t>
+          <t>As a Data Analyst I want to download a data package, so that that I can study it and wrangle with it to infer new data or generate new insights.</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -2601,12 +2601,12 @@
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>As an Owner, I want to edit my profile, so that that it is updated with new information.</t>
+          <t>As a Data Analyst I want to download a data package, so that that I can study it and wrangle with it to infer new data or generate new insights.</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>As an owner, I want to view all the people in my organization and what roles they have, so that that I can change these if I want.</t>
+          <t>As a Consumer, I want to download a DataPackage's data one coherent SQLite database, so that that I can get it easily in one form.</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -2635,12 +2635,12 @@
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>As a Publisher, I want to have private data packages, so that I can share just with my team.</t>
+          <t>As a Consumer, I want to download a DataPackage's data one coherent SQLite database, so that that I can get it easily in one form.</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
@@ -2652,41 +2652,41 @@
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>As a Publisher, I want to have private data packages, so that I can share just with my team.</t>
+          <t>As a Publisher, I want to tag datapackage to create a snapshot of data on the registry server, so that that consumers can refer to it.</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>#G19#</t>
+          <t>#G14#</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>As an OlderPerson, I want to have everything preinstalled, so that I do not have to set up ALFRED by myself.</t>
+          <t>As a Publisher, I want to be able to overwrite the previously tagged datapackage, so that that I can fix it if I mess up.</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>#G19#</t>
+          <t>#G14#</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>As an OlderPerson, I want to have ALFRED on a bracelet or a necklace, so that I can always wear him with me.</t>
+          <t>As a Publisher, I want to be able to overwrite the previously tagged datapackage, so that that I can fix it if I mess up.</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -2698,46 +2698,46 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>#G19#</t>
+          <t>#G14#</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>As a developer, I want to have the API components to be on a high level so that I don’t have to deal with their details.</t>
+          <t>As a Consumer, I want to download a Data package at a particular version, so that that I know it is compatible with my scripts and system.</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>#G21#</t>
+          <t>#G14#</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>As a attendee, I want to be added to a training waitlist, so that so they can be considered for a class.</t>
+          <t>As an Owner, I want to edit my profile, so that that it is updated with new information.</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>#G21#</t>
+          <t>#G14#</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>As a administrator, I want to assign sponsors to events, trainings and summits so that They will be featured on the sponsor detail page.</t>
+          <t>As an Owner, I want to edit my profile, so that that it is updated with new information.</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -2749,12 +2749,12 @@
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>#G21#</t>
+          <t>#G14#</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>As a administrator, I want to tag my blog posts for consumption by Drupal Planet, so that they will be listed on the Drupal Planet blog.</t>
+          <t>As an owner, I want to view all the people in my organization and what roles they have, so that that I can change these if I want.</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -2766,29 +2766,29 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>#G21#</t>
+          <t>#G14#</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>As a administrator, I want to tag my blog posts for consumption by Drupal Planet, so that they will be listed on the Drupal Planet blog.</t>
+          <t>As a Publisher, I want to have private data packages, so that I can share just with my team.</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>#G21#</t>
+          <t>#G14#</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>As a administrator, I want to create blog posts, so that I can share the latest information about BADCamp with the public.</t>
+          <t>As a Publisher, I want to have private data packages, so that I can share just with my team.</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -2800,12 +2800,12 @@
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>#G21#</t>
+          <t>#G19#</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>As a anonymoususer, I want to read the blog, so that I can stay informed about all the latest happenings with BADCamp.</t>
+          <t>As an OlderPerson, I want to have everything preinstalled, so that I do not have to set up ALFRED by myself.</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
@@ -2817,29 +2817,29 @@
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>#G21#</t>
+          <t>#G19#</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>As a authenticateduser, I want to view the job board, so that I can look for an interesting Drupal gig!.</t>
+          <t>As an OlderPerson, I want to have ALFRED on a bracelet or a necklace, so that I can always wear him with me.</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>#G21#</t>
+          <t>#G19#</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>As a administrator, I want to mark a session as accepted, so that I can populate the schedule .</t>
+          <t>As a developer, I want to have the API components to be on a high level so that I don’t have to deal with their details.</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>As a sponsor, I want to personalize my sponsorship page, so that I can promote my brand.</t>
+          <t>As a attendee, I want to be added to a training waitlist, so that so they can be considered for a class.</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>As a anonymoususer, I want to fill out a user registration form, so that I can register for the camp and get an account on the website.</t>
+          <t>As a administrator, I want to assign sponsors to events, trainings and summits so that They will be featured on the sponsor detail page.</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
@@ -2885,63 +2885,63 @@
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>#G22#</t>
+          <t>#G21#</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>As a researcher, I want to import metadata that I captured with a metadata tool, so that I do not have to capture it again in a DMP.</t>
+          <t>As a administrator, I want to tag my blog posts for consumption by Drupal Planet, so that they will be listed on the Drupal Planet blog.</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>#G22#</t>
+          <t>#G21#</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>As a researcher, I want to know which topics are mandatory and similar in all DMPs, so that I can save time through quickly writing it.</t>
+          <t>As a administrator, I want to tag my blog posts for consumption by Drupal Planet, so that they will be listed on the Drupal Planet blog.</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>#G22#</t>
+          <t>#G21#</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>As a PI, I want to record information about my DMP, so that an Ethics Committee can review this for compliance with ethical standards.</t>
+          <t>As a administrator, I want to create blog posts, so that I can share the latest information about BADCamp with the public.</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>#G22#</t>
+          <t>#G21#</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>As a PI, I want to record information about my DMP, so that an Ethics Committee can review this for compliance with ethical standards.</t>
+          <t>As a anonymoususer, I want to read the blog, so that I can stay informed about all the latest happenings with BADCamp.</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -2953,12 +2953,12 @@
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>#G22#</t>
+          <t>#G21#</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>As a stakeholder, I want to have references to the project proposal, so that I can look up further general information.</t>
+          <t>As a authenticateduser, I want to view the job board, so that I can look for an interesting Drupal gig!.</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -2970,46 +2970,46 @@
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>#G22#</t>
+          <t>#G21#</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>As a researcher, I want to extract the description of the data collected, so that I can reuse it for the writing of a data paper.</t>
+          <t>As a administrator, I want to mark a session as accepted, so that I can populate the schedule .</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>#G22#</t>
+          <t>#G21#</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>As a institutional data steward, I want to be able to extract the data sets that are submitted to external repositories, so that I can add them to an institutional data catalogue.</t>
+          <t>As a sponsor, I want to personalize my sponsorship page, so that I can promote my brand.</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>#G22#</t>
+          <t>#G21#</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>As a institutional data steward, I want to be able to extract the data sets that are submitted to external repositories, so that I can add them to an institutional data catalogue.</t>
+          <t>As a anonymoususer, I want to fill out a user registration form, so that I can register for the camp and get an account on the website.</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
@@ -3021,12 +3021,12 @@
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>#G24#</t>
+          <t>#G22#</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>As a depositor, I want to place data under an embargo, so that my right of first use is protected, and I can fulfil my confidentiality responsibilities.</t>
+          <t>As a researcher, I want to import metadata that I captured with a metadata tool, so that I do not have to capture it again in a DMP.</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -3038,29 +3038,29 @@
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>#G26#</t>
+          <t>#G22#</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>As an archivist, I want to have an online form for licensing archival material, so that the process is more transparent and some of the back and forth can be eliminated.</t>
+          <t>As a researcher, I want to know which topics are mandatory and similar in all DMPs, so that I can save time through quickly writing it.</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>#G26#</t>
+          <t>#G22#</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>As an assistant archivist, I want to upload and tag staff generated working papers, so that staff and researchers are able to easily access them.</t>
+          <t>As a PI, I want to record information about my DMP, so that an Ethics Committee can review this for compliance with ethical standards.</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
@@ -3072,29 +3072,29 @@
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>#G26#</t>
+          <t>#G22#</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>As an archivist, I want to link electronic versions of researchers' publications to citations, so that I can share them with other researchers.</t>
+          <t>As a PI, I want to record information about my DMP, so that an Ethics Committee can review this for compliance with ethical standards.</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>#G26#</t>
+          <t>#G22#</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>As an archivist, I want to link electronic versions of researchers' publications to citations, so that I can share them with other researchers.</t>
+          <t>As a stakeholder, I want to have references to the project proposal, so that I can look up further general information.</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
@@ -3106,12 +3106,12 @@
     <row r="157">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>#G26#</t>
+          <t>#G22#</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>As an archivist, I want to rotate images, so that I can orient them correctly.</t>
+          <t>As a researcher, I want to extract the description of the data collected, so that I can reuse it for the writing of a data paper.</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
@@ -3123,29 +3123,29 @@
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>#G26#</t>
+          <t>#G22#</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>As an archivist, I want to perform contrast, level and other manipulations manually, so that I can improve on results from automated tools.</t>
+          <t>As a institutional data steward, I want to be able to extract the data sets that are submitted to external repositories, so that I can add them to an institutional data catalogue.</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>#G26#</t>
+          <t>#G22#</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>As an archivist, I want to perform contrast, level and other manipulations manually, so that I can improve on results from automated tools.</t>
+          <t>As a institutional data steward, I want to be able to extract the data sets that are submitted to external repositories, so that I can add them to an institutional data catalogue.</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
@@ -3157,12 +3157,12 @@
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>#G26#</t>
+          <t>#G24#</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>As an archivist, I want to perform contrast, level and other manipulations manually, so that I can improve on results from automated tools.</t>
+          <t>As a depositor, I want to place data under an embargo, so that my right of first use is protected, and I can fulfil my confidentiality responsibilities.</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
@@ -3179,12 +3179,12 @@
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>As an archivist, I want to manage loan documentation, including preservation photos, forms and correspondence, so that I can find it easily later.</t>
+          <t>As an archivist, I want to have an online form for licensing archival material, so that the process is more transparent and some of the back and forth can be eliminated.</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
@@ -3196,12 +3196,12 @@
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>As a researcher, I want to share reports I've written, so that it is available to staff and researchers.</t>
+          <t>As an assistant archivist, I want to upload and tag staff generated working papers, so that staff and researchers are able to easily access them.</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>As a researcher, I want to share reports I've written, so that it is available to staff and researchers.</t>
+          <t>As an archivist, I want to link electronic versions of researchers' publications to citations, so that I can share them with other researchers.</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
@@ -3230,12 +3230,12 @@
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>As a researcher, I want to download a file, so that I can use it for research without having to come to the reading room.</t>
+          <t>As an archivist, I want to link electronic versions of researchers' publications to citations, so that I can share them with other researchers.</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>As a researcher, I want to download reports, so that I can use them in immediate and future in talks and articles.</t>
+          <t>As an archivist, I want to rotate images, so that I can orient them correctly.</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>As a researcher, I want to download reports, so that I can use them in immediate and future in talks and articles.</t>
+          <t>As an archivist, I want to perform contrast, level and other manipulations manually, so that I can improve on results from automated tools.</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>As a researcher, I want to download reports, so that I can use them in immediate and future in talks and articles.</t>
+          <t>As an archivist, I want to perform contrast, level and other manipulations manually, so that I can improve on results from automated tools.</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
@@ -3298,12 +3298,12 @@
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>As a researcher, I want to request analog versions of digital objects, so that I can view them in the reading room.</t>
+          <t>As an archivist, I want to perform contrast, level and other manipulations manually, so that I can improve on results from automated tools.</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
@@ -3315,12 +3315,12 @@
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>As a researcher, I want to request analog versions of digital objects, so that I can view them in the reading room.</t>
+          <t>As an archivist, I want to manage loan documentation, including preservation photos, forms and correspondence, so that I can find it easily later.</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>As a researcher, I want to order copies of photos, so that I can use them in a publication.</t>
+          <t>As a researcher, I want to share reports I've written, so that it is available to staff and researchers.</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>As a researcher, I want to order copies of photos, so that I can use them in a publication.</t>
+          <t>As a researcher, I want to share reports I've written, so that it is available to staff and researchers.</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
@@ -3366,12 +3366,12 @@
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>As a researcher, I want to export descriptive data in a common format, so that I can use text mining tools on it.</t>
+          <t>As a researcher, I want to download a file, so that I can use it for research without having to come to the reading room.</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>As a donor representative, I want to look at images that have been scanned from my collection, so that so that I can use them in my institutions exhibits, reports etc.</t>
+          <t>As a researcher, I want to download reports, so that I can use them in immediate and future in talks and articles.</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>As a donor representative, I want to look at images that have been scanned from my collection, so that so that I can use them in my institutions exhibits, reports etc.</t>
+          <t>As a researcher, I want to download reports, so that I can use them in immediate and future in talks and articles.</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>As a donor representative, I want to look at images that have been scanned from my collection, so that so that I can use them in my institutions exhibits, reports etc.</t>
+          <t>As a researcher, I want to download reports, so that I can use them in immediate and future in talks and articles.</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>As an archivist, I want to access the digital files on the X-drive, so that I can use them.</t>
+          <t>As a researcher, I want to request analog versions of digital objects, so that I can view them in the reading room.</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>As an archivist, I want to view collection files, so that I can gain background information for processing a collection.</t>
+          <t>As a researcher, I want to request analog versions of digital objects, so that I can view them in the reading room.</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>As an archivist, I want to access metadata and visual representations of index cards, so that I can use that information to assist researchers.</t>
+          <t>As a researcher, I want to order copies of photos, so that I can use them in a publication.</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
         <is>
-          <t>Contain</t>
+          <t>Target</t>
         </is>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>As an archivist, I want to access metadata and visual representations of index cards, so that I can use that information to assist researchers.</t>
+          <t>As a researcher, I want to order copies of photos, so that I can use them in a publication.</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>As an administrator, I want to create user groups, so that I can control user permissions.</t>
+          <t>As a researcher, I want to export descriptive data in a common format, so that I can use text mining tools on it.</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -3514,12 +3514,12 @@
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>#G27#</t>
+          <t>#G26#</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>As a faculty member, I want to maintain versioning of Extension brochures, FAQs, etc., so that only the most current are used/adapted by other CCE Educators in their work.</t>
+          <t>As a donor representative, I want to look at images that have been scanned from my collection, so that so that I can use them in my institutions exhibits, reports etc.</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
@@ -3531,29 +3531,29 @@
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>#G27#</t>
+          <t>#G26#</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>As a faculty member, I want to maintain versioning of Extension brochures, FAQs, etc., so that only the most current are used/adapted by other CCE Educators in their work.</t>
+          <t>As a donor representative, I want to look at images that have been scanned from my collection, so that so that I can use them in my institutions exhibits, reports etc.</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>#G27#</t>
+          <t>#G26#</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>As a faculty member, I want to maintain versioning of Extension brochures, FAQs, etc., so that only the most current are used/adapted by other CCE Educators in their work.</t>
+          <t>As a donor representative, I want to look at images that have been scanned from my collection, so that so that I can use them in my institutions exhibits, reports etc.</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
@@ -3565,12 +3565,12 @@
     <row r="184">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>#G27#</t>
+          <t>#G26#</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>As a faculty member, I want to upload my scholarly work to the repository, so that I can reach a non-academic audience, expand my influence within my academic community, and use it for teaching.</t>
+          <t>As an archivist, I want to access the digital files on the X-drive, so that I can use them.</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -3582,12 +3582,12 @@
     <row r="185">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>#G27#</t>
+          <t>#G26#</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>As a faculty member, I want to upload my scholarly work to the repository, so that I can reach a non-academic audience, expand my influence within my academic community, and use it for teaching.</t>
+          <t>As an archivist, I want to view collection files, so that I can gain background information for processing a collection.</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
@@ -3599,12 +3599,12 @@
     <row r="186">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>#G27#</t>
+          <t>#G26#</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>As an administrator, I want to have a platform that can support a variety of media file and text-based formats, so that the intellectual output of the school can be showcased and preserved in a more comprehensive way.</t>
+          <t>As an archivist, I want to access metadata and visual representations of index cards, so that I can use that information to assist researchers.</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -3616,32 +3616,168 @@
     <row r="187">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>#G27#</t>
+          <t>#G26#</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>As a stakeholder, I want to have files adequately described, so that I can successfully render them in my contemporary operating environment.</t>
+          <t>As an archivist, I want to access metadata and visual representations of index cards, so that I can use that information to assist researchers.</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Contain</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3" t="inlineStr">
         <is>
+          <t>#G26#</t>
+        </is>
+      </c>
+      <c r="B188" s="3" t="inlineStr">
+        <is>
+          <t>As an administrator, I want to create user groups, so that I can control user permissions.</t>
+        </is>
+      </c>
+      <c r="C188" s="3" t="inlineStr">
+        <is>
+          <t>Contain</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="inlineStr">
+        <is>
           <t>#G27#</t>
         </is>
       </c>
-      <c r="B188" s="3" t="inlineStr">
+      <c r="B189" s="3" t="inlineStr">
+        <is>
+          <t>As a faculty member, I want to maintain versioning of Extension brochures, FAQs, etc., so that only the most current are used/adapted by other CCE Educators in their work.</t>
+        </is>
+      </c>
+      <c r="C189" s="3" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3" t="inlineStr">
+        <is>
+          <t>#G27#</t>
+        </is>
+      </c>
+      <c r="B190" s="3" t="inlineStr">
+        <is>
+          <t>As a faculty member, I want to maintain versioning of Extension brochures, FAQs, etc., so that only the most current are used/adapted by other CCE Educators in their work.</t>
+        </is>
+      </c>
+      <c r="C190" s="3" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="inlineStr">
+        <is>
+          <t>#G27#</t>
+        </is>
+      </c>
+      <c r="B191" s="3" t="inlineStr">
+        <is>
+          <t>As a faculty member, I want to maintain versioning of Extension brochures, FAQs, etc., so that only the most current are used/adapted by other CCE Educators in their work.</t>
+        </is>
+      </c>
+      <c r="C191" s="3" t="inlineStr">
+        <is>
+          <t>Contain</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3" t="inlineStr">
+        <is>
+          <t>#G27#</t>
+        </is>
+      </c>
+      <c r="B192" s="3" t="inlineStr">
+        <is>
+          <t>As a faculty member, I want to upload my scholarly work to the repository, so that I can reach a non-academic audience, expand my influence within my academic community, and use it for teaching.</t>
+        </is>
+      </c>
+      <c r="C192" s="3" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="inlineStr">
+        <is>
+          <t>#G27#</t>
+        </is>
+      </c>
+      <c r="B193" s="3" t="inlineStr">
+        <is>
+          <t>As a faculty member, I want to upload my scholarly work to the repository, so that I can reach a non-academic audience, expand my influence within my academic community, and use it for teaching.</t>
+        </is>
+      </c>
+      <c r="C193" s="3" t="inlineStr">
+        <is>
+          <t>Contain</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3" t="inlineStr">
+        <is>
+          <t>#G27#</t>
+        </is>
+      </c>
+      <c r="B194" s="3" t="inlineStr">
+        <is>
+          <t>As an administrator, I want to have a platform that can support a variety of media file and text-based formats, so that the intellectual output of the school can be showcased and preserved in a more comprehensive way.</t>
+        </is>
+      </c>
+      <c r="C194" s="3" t="inlineStr">
+        <is>
+          <t>Contain</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="inlineStr">
+        <is>
+          <t>#G27#</t>
+        </is>
+      </c>
+      <c r="B195" s="3" t="inlineStr">
         <is>
           <t>As a stakeholder, I want to have files adequately described, so that I can successfully render them in my contemporary operating environment.</t>
         </is>
       </c>
-      <c r="C188" s="3" t="inlineStr">
+      <c r="C195" s="3" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="3" t="inlineStr">
+        <is>
+          <t>#G27#</t>
+        </is>
+      </c>
+      <c r="B196" s="3" t="inlineStr">
+        <is>
+          <t>As a stakeholder, I want to have files adequately described, so that I can successfully render them in my contemporary operating environment.</t>
+        </is>
+      </c>
+      <c r="C196" s="3" t="inlineStr">
         <is>
           <t>Contain</t>
         </is>

--- a/src/output_detections_highlighting_with_text_and_annotations.xlsx
+++ b/src/output_detections_highlighting_with_text_and_annotations.xlsx
@@ -8,9 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Incomplete US labelling" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Time Consup. Anlys.S." sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Incomplete US labelling'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Time Consup. Anlys.S.'!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -3787,4 +3789,621 @@
   <autoFilter ref="A1:C1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.5" customWidth="1" min="1" max="1"/>
+    <col width="16.5" customWidth="1" min="2" max="2"/>
+    <col width="22.5" customWidth="1" min="3" max="3"/>
+    <col width="28.5" customWidth="1" min="4" max="4"/>
+    <col width="19.5" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="13.5" customWidth="1" min="7" max="7"/>
+    <col width="13.5" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Run Count</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Model Version</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Threading Enabled</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Nanoseconds</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Milliseconds</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Seconds</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>g03</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>38512547600</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>38512.5476</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>38.5125476</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0.6418757933333333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>g04</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>40979311400</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>40979.3114</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>40.9793114</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0.6829885233333334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>g08</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>34931253200</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>34931.2532</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>34.9312532</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0.5821875533333334</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>g10</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>36928688300</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>36928.6883</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>36.9286883</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0.6154781383333333</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>g11</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>62972494100</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>62972.4941</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>62.9724941</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>1.049541568333333</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>g14</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>28285799500</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>28285.7995</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>28.2857995</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0.4714299916666667</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>g16</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>62265483300</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>62265.4833</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>62.2654833</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>1.037758055</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>g18</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>69495710600</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>69495.71060000001</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>69.4957106</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>1.158261843333333</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>g19</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>60467353300</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>60467.3533</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>60.4673533</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>1.007789221666667</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>g21</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>35529855900</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>35529.8559</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>35.5298559</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0.592164265</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>g22</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>43263083000</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>43263.083</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>43.263083</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>0.7210513833333334</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>g23</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>40747012900</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>40747.0129</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>40.7470129</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>0.6791168816666667</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>g24</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>32971244800</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>32971.2448</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>32.9712448</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>0.5495207466666667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>g25</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>78224568600</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>78224.5686</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>78.2245686</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>1.30374281</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>g26</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>17749166200</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>17749.1662</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>17.7491662</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>0.2958194366666667</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>g27</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>20200447000</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>20200.447</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>20.200447</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>0.3366741166666667</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>g28</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>32354950100</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>32354.9501</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>32.3549501</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>0.5392491683333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/src/output_detections_highlighting_with_text_and_annotations.xlsx
+++ b/src/output_detections_highlighting_with_text_and_annotations.xlsx
@@ -3797,7 +3797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3872,10 +3872,8 @@
           <t>gpt-3.5-turbo</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>20227980235300</v>
@@ -3888,6 +3886,36 @@
       </c>
       <c r="H2" s="3" t="n">
         <v>337.1330039216667</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>g22</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>3564188420100</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>3564188.4201</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>3564.1884201</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>59.403140335</v>
       </c>
     </row>
   </sheetData>
